--- a/files/transactions.xlsx
+++ b/files/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\importexport\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F55DB-35D0-40E3-A85F-0294668F1819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C2D64-9D2D-40BB-AAAB-399020A43F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2A05D192-6242-4EAA-B463-5FC880BD6E58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>amount</t>
   </si>
@@ -120,28 +120,13 @@
     <t>blockghana.org</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>7ZQDBXDE3RFVT22ZL4AB5T5TCXYRLPG5XKKNLLSYM577B6CSE4WV3W6A2U</t>
-  </si>
-  <si>
-    <t>rekey</t>
-  </si>
-  <si>
-    <t>EBABIFYHKVSMFEV66M7SMIILEZCJ4SHBC3FPGISFFTRIIG6VX3KGSAXR34</t>
-  </si>
-  <si>
     <t>noteAsset</t>
   </si>
   <si>
-    <t>ESG1</t>
-  </si>
-  <si>
-    <t>eresung1</t>
+    <t>eresung6</t>
+  </si>
+  <si>
+    <t>ESG6</t>
   </si>
 </sst>
 </file>
@@ -508,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885BD1EC-38AA-453B-8C26-914A32E40531}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,22 +505,20 @@
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="17.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6328125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,58 +538,49 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="21.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="21.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5000000</v>
       </c>
@@ -623,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="21.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="21.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3000000</v>
       </c>
@@ -643,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -660,62 +634,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="b">
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="J5" s="3">
         <v>1000000</v>
       </c>
-      <c r="N5" s="1">
+      <c r="K5" s="1">
         <v>4</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="41.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
